--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
   <si>
     <t>Step No</t>
   </si>
@@ -856,15 +856,6 @@
   </si>
   <si>
     <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
   </si>
   <si>
     <t>Actions</t>
@@ -1166,8 +1157,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -1219,8 +1210,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1235,14 +1242,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1256,16 +1286,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1280,26 +1317,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1312,45 +1334,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1377,7 +1368,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,13 +1428,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,31 +1512,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,55 +1524,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1509,55 +1542,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,6 +1616,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1664,30 +1690,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1711,21 +1713,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1743,130 +1734,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2315,10 +2306,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:A145"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A144" sqref="$A144:$XFD145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -2468,7 +2459,7 @@
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -2612,7 +2603,7 @@
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2720,7 +2711,7 @@
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>39</v>
@@ -3006,7 +2997,7 @@
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>39</v>
@@ -3210,7 +3201,7 @@
       <c r="C36" s="9"/>
       <c r="D36" s="12"/>
       <c r="E36" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>12</v>
@@ -3454,7 +3445,7 @@
       <c r="C47" s="9"/>
       <c r="D47" s="12"/>
       <c r="E47" s="9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>12</v>
@@ -3514,7 +3505,7 @@
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
       <c r="E50" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="10"/>
@@ -3552,7 +3543,7 @@
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
       <c r="E52" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
@@ -3898,7 +3889,7 @@
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>12</v>
@@ -3940,7 +3931,7 @@
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
@@ -3978,7 +3969,7 @@
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>12</v>
@@ -4420,7 +4411,7 @@
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
       <c r="E92" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F92" s="11" t="s">
         <v>12</v>
@@ -4462,7 +4453,7 @@
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
@@ -4500,7 +4491,7 @@
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
       <c r="E96" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F96" s="11" t="s">
         <v>12</v>
@@ -4560,7 +4551,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="12"/>
       <c r="E99" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F99" s="9" t="s">
         <v>12</v>
@@ -4602,7 +4593,7 @@
       <c r="C101" s="9"/>
       <c r="D101" s="12"/>
       <c r="E101" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F101" s="9"/>
       <c r="G101" s="7"/>
@@ -4640,7 +4631,7 @@
       <c r="C103" s="9"/>
       <c r="D103" s="12"/>
       <c r="E103" s="9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F103" s="9" t="s">
         <v>12</v>
@@ -4890,7 +4881,7 @@
       <c r="C115" s="11"/>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>12</v>
@@ -4932,7 +4923,7 @@
       <c r="C117" s="11"/>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
@@ -4970,7 +4961,7 @@
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>12</v>
@@ -5258,7 +5249,7 @@
       <c r="C133" s="11"/>
       <c r="D133" s="11"/>
       <c r="E133" s="11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>12</v>
@@ -5482,47 +5473,9 @@
       <c r="G143" s="10"/>
       <c r="H143" s="11"/>
     </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="7">
-        <v>143</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H144" s="9"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="7">
-        <v>144</v>
-      </c>
-      <c r="B145" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11">
-        <v>4</v>
-      </c>
-      <c r="F145" s="11"/>
-      <c r="G145" s="10"/>
-      <c r="H145" s="11"/>
-    </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 B144:B145 K4:K11 K14:K16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 K4:K11 K14:K16">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -5571,7 +5524,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5579,20 +5532,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5603,20 +5556,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5624,42 +5577,42 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -5674,12 +5627,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5689,17 +5642,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -5709,35 +5662,35 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5747,152 +5700,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5902,37 +5855,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -5942,169 +5895,169 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="99" spans="3:3">

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -1,37 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404EA59-F3E2-4A3E-9F97-14DDDD620568}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="372">
   <si>
     <t>Step No</t>
   </si>
@@ -379,9 +385,6 @@
   </si>
   <si>
     <t>CONTACT_SEQUENCE</t>
-  </si>
-  <si>
-    <t>primary</t>
   </si>
   <si>
     <t>APP_AUTHORIZE_PERSON_NO</t>
@@ -1155,14 +1158,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1202,152 +1199,8 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1362,198 +1215,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor theme="4" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
+        <bgColor theme="4" tint="0.79995117038483843"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1563,29 +1230,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399884029663991"/>
+        <color theme="4" tint="0.39985351115451523"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1593,273 +1260,31 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4" tint="0.39994506668294322"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1880,68 +1305,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Xpath"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1955,23 +1351,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Xpath"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1986,7 +1367,22 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2000,23 +1396,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="DataList"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2031,18 +1412,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="LocateBy"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="Actions"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2300,32 +1681,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A144" sqref="$A144:$XFD145"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.4285714285714" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.7142857142857" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85714285714286" style="4"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2351,7 +1732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:17">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2369,7 +1750,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:17">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2787,7 +2168,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:17">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2811,7 +2192,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:17">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2827,7 +2208,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:17">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2851,7 +2232,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:17">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2875,7 +2256,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:17">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2897,7 +2278,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:17">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2919,7 +2300,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:17">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -2941,7 +2322,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:17">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2965,7 +2346,7 @@
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:17">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2987,7 +2368,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:17">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -3007,7 +2388,7 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:17">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -3027,7 +2408,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:17">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -3051,7 +2432,7 @@
       </c>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:17">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -3075,7 +2456,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:17">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -3099,7 +2480,7 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:17">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -3398,7 +2779,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>42</v>
+        <v>302</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>20</v>
@@ -3406,8 +2787,8 @@
       <c r="D45" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E45" s="9" t="s">
-        <v>116</v>
+      <c r="E45" s="9">
+        <v>1</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="7"/>
@@ -3466,7 +2847,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -3522,14 +2903,14 @@
         <v>15</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H51" s="9"/>
     </row>
@@ -3554,20 +2935,20 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H53" s="9"/>
     </row>
@@ -3582,7 +2963,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -3616,7 +2997,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -3634,13 +3015,13 @@
         <v>15</v>
       </c>
       <c r="D57" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>127</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>28</v>
@@ -3658,13 +3039,13 @@
         <v>15</v>
       </c>
       <c r="D58" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="11" t="s">
+      <c r="F58" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="F58" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>32</v>
@@ -3682,16 +3063,16 @@
         <v>20</v>
       </c>
       <c r="D59" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="F59" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="G59" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H59" s="9"/>
     </row>
@@ -3706,16 +3087,16 @@
         <v>15</v>
       </c>
       <c r="D60" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="11" t="s">
+      <c r="F60" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="G60" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="H60" s="11"/>
     </row>
@@ -3730,13 +3111,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>102</v>
@@ -3754,13 +3135,13 @@
         <v>15</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>106</v>
@@ -3778,16 +3159,16 @@
         <v>15</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="9">
         <v>10001</v>
       </c>
       <c r="F63" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H63" s="9"/>
     </row>
@@ -3802,16 +3183,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E64" s="11">
         <v>9789123456</v>
       </c>
       <c r="F64" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="H64" s="11"/>
     </row>
@@ -3820,13 +3201,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -3844,16 +3225,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E66" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E66" s="11" t="s">
+      <c r="F66" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F66" s="11" t="s">
+      <c r="G66" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="H66" s="11"/>
     </row>
@@ -3899,7 +3280,7 @@
       </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" s="4" customFormat="1" spans="1:8">
+    <row r="69" spans="1:8">
       <c r="A69" s="10">
         <v>68</v>
       </c>
@@ -3910,18 +3291,18 @@
         <v>15</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>120</v>
-      </c>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" s="4" customFormat="1" spans="1:8">
+    <row r="70" spans="1:8">
       <c r="A70" s="11">
         <v>69</v>
       </c>
@@ -3937,7 +3318,7 @@
       <c r="G70" s="10"/>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" s="4" customFormat="1" spans="1:8">
+    <row r="71" spans="1:8">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3959,7 +3340,7 @@
       </c>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" s="4" customFormat="1" spans="1:8">
+    <row r="72" spans="1:8">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -3990,16 +3371,16 @@
         <v>20</v>
       </c>
       <c r="D73" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="F73" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="G73" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H73" s="9"/>
     </row>
@@ -4024,16 +3405,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="12"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H75" s="9"/>
     </row>
@@ -4048,16 +3429,16 @@
         <v>20</v>
       </c>
       <c r="D76" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -4072,16 +3453,16 @@
         <v>15</v>
       </c>
       <c r="D77" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H77" s="9"/>
     </row>
@@ -4096,16 +3477,16 @@
         <v>20</v>
       </c>
       <c r="D78" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="F78" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>171</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -4120,16 +3501,16 @@
         <v>15</v>
       </c>
       <c r="D79" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="F79" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="G79" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H79" s="9"/>
     </row>
@@ -4144,16 +3525,16 @@
         <v>15</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E80" s="11">
         <v>1235647899</v>
       </c>
       <c r="F80" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G80" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>178</v>
       </c>
       <c r="H80" s="11"/>
     </row>
@@ -4168,7 +3549,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -4186,14 +3567,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>182</v>
       </c>
       <c r="H82" s="11"/>
     </row>
@@ -4208,16 +3589,16 @@
         <v>15</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E83" s="9">
         <v>97890456789</v>
       </c>
       <c r="F83" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H83" s="9"/>
     </row>
@@ -4232,14 +3613,14 @@
         <v>20</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G84" s="10" t="s">
         <v>187</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="H84" s="11"/>
     </row>
@@ -4254,16 +3635,16 @@
         <v>20</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E85" s="9">
         <v>1230</v>
       </c>
       <c r="F85" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H85" s="9"/>
     </row>
@@ -4278,16 +3659,16 @@
         <v>20</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E86" s="11">
         <v>1550</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H86" s="11"/>
     </row>
@@ -4302,14 +3683,14 @@
         <v>20</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H87" s="9"/>
     </row>
@@ -4324,14 +3705,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="G88" s="10" t="s">
-        <v>198</v>
       </c>
       <c r="H88" s="11"/>
     </row>
@@ -4346,14 +3727,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H89" s="9"/>
     </row>
@@ -4368,14 +3749,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H90" s="11"/>
     </row>
@@ -4432,14 +3813,14 @@
         <v>15</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H93" s="9"/>
     </row>
@@ -4512,7 +3893,7 @@
         <v>20</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -4572,14 +3953,14 @@
         <v>15</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G100" s="10" t="s">
         <v>119</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>120</v>
       </c>
       <c r="H100" s="11"/>
     </row>
@@ -4652,16 +4033,16 @@
         <v>20</v>
       </c>
       <c r="D104" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="F104" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="G104" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="H104" s="11"/>
     </row>
@@ -4686,16 +4067,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G106" s="10" t="s">
         <v>208</v>
-      </c>
-      <c r="G106" s="10" t="s">
-        <v>209</v>
       </c>
       <c r="H106" s="11"/>
     </row>
@@ -4710,14 +4091,14 @@
         <v>20</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H107" s="9"/>
     </row>
@@ -4732,14 +4113,14 @@
         <v>20</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G108" s="10" t="s">
         <v>211</v>
-      </c>
-      <c r="G108" s="10" t="s">
-        <v>212</v>
       </c>
       <c r="H108" s="11"/>
     </row>
@@ -4754,16 +4135,16 @@
         <v>20</v>
       </c>
       <c r="D109" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="F109" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="G109" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H109" s="9"/>
     </row>
@@ -4788,16 +4169,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G111" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="G111" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="H111" s="11"/>
     </row>
@@ -4812,16 +4193,16 @@
         <v>15</v>
       </c>
       <c r="D112" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="F112" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="G112" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H112" s="9"/>
     </row>
@@ -4836,16 +4217,16 @@
         <v>15</v>
       </c>
       <c r="D113" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="F113" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="G113" s="10" t="s">
         <v>225</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="H113" s="11"/>
     </row>
@@ -4902,14 +4283,14 @@
         <v>15</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H116" s="9"/>
     </row>
@@ -4982,14 +4363,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H120" s="9"/>
     </row>
@@ -5020,7 +4401,7 @@
         <v>20</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -5054,14 +4435,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="G124" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H124" s="9"/>
     </row>
@@ -5078,10 +4459,10 @@
         <v>3</v>
       </c>
       <c r="F125" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G125" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="G125" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="H125" s="11"/>
     </row>
@@ -5096,14 +4477,14 @@
         <v>20</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="G126" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H126" s="9"/>
     </row>
@@ -5118,14 +4499,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G127" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="H127" s="11"/>
     </row>
@@ -5156,16 +4537,16 @@
         <v>15</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E129" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="F129" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F129" s="11" t="s">
+      <c r="G129" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="H129" s="11"/>
     </row>
@@ -5180,16 +4561,16 @@
         <v>15</v>
       </c>
       <c r="D130" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="F130" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="G130" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H130" s="9"/>
     </row>
@@ -5204,16 +4585,16 @@
         <v>15</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E131" s="11">
         <v>9889656446</v>
       </c>
       <c r="F131" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G131" s="10" t="s">
         <v>147</v>
-      </c>
-      <c r="G131" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="H131" s="11"/>
     </row>
@@ -5228,14 +4609,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G132" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H132" s="9"/>
     </row>
@@ -5264,20 +4645,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C134" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D134" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="C134" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="12" t="s">
-        <v>255</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="G134" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G134" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H134" s="9"/>
     </row>
@@ -5286,20 +4667,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H135" s="11"/>
     </row>
@@ -5308,20 +4689,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H136" s="9"/>
     </row>
@@ -5330,20 +4711,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H137" s="11"/>
     </row>
@@ -5352,20 +4733,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H138" s="9"/>
     </row>
@@ -5374,20 +4755,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H139" s="11"/>
     </row>
@@ -5396,20 +4777,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H140" s="9"/>
     </row>
@@ -5418,20 +4799,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H141" s="11"/>
     </row>
@@ -5446,14 +4827,14 @@
         <v>20</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G142" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H142" s="9"/>
     </row>
@@ -5474,590 +4855,610 @@
       <c r="H143" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 K4:K11 K14:K16">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
-      <formula1>[2]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B17 B73:B75 C7:C9 C14:C17 C73:C75">
-      <formula1>[1]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L10 C18:C28">
-      <formula1>[3]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16">
-      <formula1>[5]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C118 C29:C35">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">
-      <formula1>[6]DataList!#REF!</formula1>
-    </dataValidation>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 K4:K11 K14:K16" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C4 C5 C6 C10 C11 C12 C13 B4:B17 B73:B75 C7:C9 C14:C17 C73:C75</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[Patient_Registration_Positive.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L8 L10 C18:C28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\[Phar_Patient_App_Create_PCase_Positive-OK.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C46 C49 C67 C71 C95 C98 C102 C118 C29:C35</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
+          <x14:formula1>
+            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive_PCase.xlsx]DataList'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>C91</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>277</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>281</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C8" t="s">
         <v>284</v>
-      </c>
-      <c r="C8" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
         <v>289</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>291</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
+    <row r="13" spans="1:4">
       <c r="C13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="3:3">
+    <row r="15" spans="1:4">
       <c r="C15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
+    <row r="17" spans="3:4">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3">
+    <row r="28" spans="3:4">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:3">
+    <row r="29" spans="3:4">
       <c r="C29" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="3:3">
-      <c r="C31" t="s">
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3">
-      <c r="C32" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="65" spans="3:3">
-      <c r="C65" t="s">
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="3:3">
-      <c r="C66" t="s">
+    <row r="67" spans="3:4">
+      <c r="C67" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="3:3">
-      <c r="C67" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="68" spans="3:3">
-      <c r="C68" t="s">
+    <row r="69" spans="3:4">
+      <c r="C69" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="69" spans="3:3">
-      <c r="C69" t="s">
+    <row r="70" spans="3:4">
+      <c r="C70" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="3:3">
-      <c r="C70" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72" t="s">
         <v>345</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="72" spans="3:3">
-      <c r="C72" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74" t="s">
         <v>347</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="74" spans="3:3">
-      <c r="C74" t="s">
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="75" spans="3:3">
-      <c r="C75" t="s">
+    <row r="76" spans="3:4">
+      <c r="C76" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="76" spans="3:3">
-      <c r="C76" t="s">
+    <row r="77" spans="3:4">
+      <c r="C77" t="s">
         <v>350</v>
-      </c>
-    </row>
-    <row r="77" spans="3:3">
-      <c r="C77" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80" t="s">
         <v>353</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="80" spans="3:3">
-      <c r="C80" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="99" spans="3:3">
@@ -6072,13 +5473,12 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -1,43 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404EA59-F3E2-4A3E-9F97-14DDDD620568}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28680" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="DataList" sheetId="3" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
+    <externalReference r:id="rId9"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Rewards" type="5" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="Rewards" type="5" background="1" refreshedVersion="2" saveData="1">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;Password=&quot;&quot;;User ID=Admin;Data Source=C:\Framework\testcase\Crowd\Rewards.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Database Password=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False" command="DataList$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
   <si>
     <t>Step No</t>
   </si>
@@ -384,6 +378,9 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
@@ -651,7 +648,7 @@
     <t>PRIMAY_DIAGNOSIS</t>
   </si>
   <si>
-    <t>Other</t>
+    <t>con</t>
   </si>
   <si>
     <t>Type Primary Diagnosis</t>
@@ -943,9 +940,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1158,8 +1152,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,8 +1199,152 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1215,12 +1359,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79995117038483843"/>
-        <bgColor theme="4" tint="0.79995117038483843"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor theme="4" tint="0.799951170384838"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1230,29 +1560,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39985351115451523"/>
+        <color theme="4" tint="0.399853511154515"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1260,31 +1590,273 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </left>
       <right style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </right>
       <top style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
       </top>
       <bottom style="thin">
-        <color theme="4" tint="0.39994506668294322"/>
+        <color theme="4" tint="0.399945066682943"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1305,24 +1877,68 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Xpath"/>
@@ -1337,7 +1953,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1352,7 +1968,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1367,7 +1983,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1382,7 +1998,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1397,7 +2013,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1412,18 +2028,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:A13" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="LocateBy"/>
+    <tableColumn id="1" name="LocateBy"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="C1:C100" totalsRowShown="0">
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Actions"/>
+    <tableColumn id="1" name="Actions"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1681,32 +2297,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="87.7109375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
+    <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.42857142857143" style="4" customWidth="1"/>
+    <col min="4" max="4" width="30.4285714285714" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.4285714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="87.7142857142857" style="4" customWidth="1"/>
+    <col min="7" max="7" width="39.7142857142857" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.7142857142857" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="8.85714285714286" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +2348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:8">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -1750,7 +2366,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:8">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -2168,7 +2784,7 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
     </row>
-    <row r="18" spans="1:17">
+    <row r="18" spans="1:8">
       <c r="A18" s="10">
         <v>17</v>
       </c>
@@ -2192,7 +2808,7 @@
       </c>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:8">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -2208,7 +2824,7 @@
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:8">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -2232,7 +2848,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:8">
       <c r="A21" s="10">
         <v>20</v>
       </c>
@@ -2256,7 +2872,7 @@
       </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:8">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -2278,7 +2894,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:8">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -2300,7 +2916,7 @@
       </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:8">
       <c r="A24" s="10">
         <v>23</v>
       </c>
@@ -2322,7 +2938,7 @@
       </c>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:17">
+    <row r="25" spans="1:8">
       <c r="A25" s="11">
         <v>24</v>
       </c>
@@ -2346,7 +2962,7 @@
       </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:17">
+    <row r="26" spans="1:8">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2368,7 +2984,7 @@
       </c>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:8">
       <c r="A27" s="10">
         <v>26</v>
       </c>
@@ -2388,7 +3004,7 @@
       </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:8">
       <c r="A28" s="11">
         <v>27</v>
       </c>
@@ -2408,7 +3024,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="1:17">
+    <row r="29" spans="1:8">
       <c r="A29" s="7">
         <v>28</v>
       </c>
@@ -2432,7 +3048,7 @@
       </c>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:8">
       <c r="A30" s="10">
         <v>29</v>
       </c>
@@ -2456,7 +3072,7 @@
       </c>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="1:17">
+    <row r="31" spans="1:8">
       <c r="A31" s="11">
         <v>30</v>
       </c>
@@ -2480,7 +3096,7 @@
       </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:8">
       <c r="A32" s="7">
         <v>31</v>
       </c>
@@ -2779,13 +3395,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>302</v>
+        <v>115</v>
       </c>
       <c r="C45" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E45" s="9">
         <v>1</v>
@@ -2847,7 +3463,7 @@
         <v>20</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E48" s="11"/>
       <c r="F48" s="11"/>
@@ -2903,14 +3519,14 @@
         <v>15</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H51" s="9"/>
     </row>
@@ -2935,20 +3551,20 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H53" s="9"/>
     </row>
@@ -2963,7 +3579,7 @@
         <v>20</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11"/>
@@ -2997,7 +3613,7 @@
         <v>20</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E56" s="11"/>
       <c r="F56" s="11"/>
@@ -3015,13 +3631,13 @@
         <v>15</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>28</v>
@@ -3039,13 +3655,13 @@
         <v>15</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>32</v>
@@ -3063,16 +3679,16 @@
         <v>20</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H59" s="9"/>
     </row>
@@ -3087,16 +3703,16 @@
         <v>15</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H60" s="11"/>
     </row>
@@ -3111,13 +3727,13 @@
         <v>20</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>100</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>102</v>
@@ -3135,13 +3751,13 @@
         <v>15</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>104</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>106</v>
@@ -3159,16 +3775,16 @@
         <v>15</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E63" s="9">
         <v>10001</v>
       </c>
       <c r="F63" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H63" s="9"/>
     </row>
@@ -3183,16 +3799,16 @@
         <v>15</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E64" s="11">
         <v>9789123456</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H64" s="11"/>
     </row>
@@ -3201,13 +3817,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C65" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -3225,16 +3841,16 @@
         <v>15</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H66" s="11"/>
     </row>
@@ -3291,14 +3907,14 @@
         <v>15</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H69" s="9"/>
     </row>
@@ -3371,16 +3987,16 @@
         <v>20</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H73" s="9"/>
     </row>
@@ -3405,16 +4021,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="12"/>
       <c r="E75" s="9"/>
       <c r="F75" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H75" s="9"/>
     </row>
@@ -3429,16 +4045,16 @@
         <v>20</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -3453,16 +4069,16 @@
         <v>15</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H77" s="9"/>
     </row>
@@ -3477,16 +4093,16 @@
         <v>20</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -3501,16 +4117,16 @@
         <v>15</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H79" s="9"/>
     </row>
@@ -3525,16 +4141,16 @@
         <v>15</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E80" s="11">
         <v>1235647899</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H80" s="11"/>
     </row>
@@ -3549,7 +4165,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -3567,14 +4183,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H82" s="11"/>
     </row>
@@ -3589,16 +4205,16 @@
         <v>15</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E83" s="9">
         <v>97890456789</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H83" s="9"/>
     </row>
@@ -3613,14 +4229,14 @@
         <v>20</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H84" s="11"/>
     </row>
@@ -3635,16 +4251,16 @@
         <v>20</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E85" s="9">
         <v>1230</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H85" s="9"/>
     </row>
@@ -3659,16 +4275,16 @@
         <v>20</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E86" s="11">
         <v>1550</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H86" s="11"/>
     </row>
@@ -3683,14 +4299,14 @@
         <v>20</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H87" s="9"/>
     </row>
@@ -3705,14 +4321,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H88" s="11"/>
     </row>
@@ -3727,14 +4343,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H89" s="9"/>
     </row>
@@ -3749,14 +4365,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H90" s="11"/>
     </row>
@@ -3813,14 +4429,14 @@
         <v>15</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E93" s="9"/>
       <c r="F93" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H93" s="9"/>
     </row>
@@ -3893,7 +4509,7 @@
         <v>20</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -3953,14 +4569,14 @@
         <v>15</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E100" s="11"/>
       <c r="F100" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G100" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H100" s="11"/>
     </row>
@@ -4033,16 +4649,16 @@
         <v>20</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G104" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H104" s="11"/>
     </row>
@@ -4067,16 +4683,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H106" s="11"/>
     </row>
@@ -4091,14 +4707,14 @@
         <v>20</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H107" s="9"/>
     </row>
@@ -4113,14 +4729,14 @@
         <v>20</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H108" s="11"/>
     </row>
@@ -4135,16 +4751,16 @@
         <v>20</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G109" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H109" s="9"/>
     </row>
@@ -4169,16 +4785,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H111" s="11"/>
     </row>
@@ -4193,16 +4809,16 @@
         <v>15</v>
       </c>
       <c r="D112" s="12" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H112" s="9"/>
     </row>
@@ -4217,16 +4833,16 @@
         <v>15</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F113" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G113" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H113" s="11"/>
     </row>
@@ -4283,14 +4899,14 @@
         <v>15</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H116" s="9"/>
     </row>
@@ -4363,14 +4979,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H120" s="9"/>
     </row>
@@ -4401,7 +5017,7 @@
         <v>20</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -4435,14 +5051,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H124" s="9"/>
     </row>
@@ -4459,10 +5075,10 @@
         <v>3</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H125" s="11"/>
     </row>
@@ -4477,14 +5093,14 @@
         <v>20</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H126" s="9"/>
     </row>
@@ -4499,14 +5115,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H127" s="11"/>
     </row>
@@ -4537,16 +5153,16 @@
         <v>15</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E129" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F129" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G129" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H129" s="11"/>
     </row>
@@ -4561,16 +5177,16 @@
         <v>15</v>
       </c>
       <c r="D130" s="12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E130" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H130" s="9"/>
     </row>
@@ -4585,16 +5201,16 @@
         <v>15</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E131" s="11">
         <v>9889656446</v>
       </c>
       <c r="F131" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G131" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H131" s="11"/>
     </row>
@@ -4609,14 +5225,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H132" s="9"/>
     </row>
@@ -4645,20 +5261,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H134" s="9"/>
     </row>
@@ -4667,20 +5283,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H135" s="11"/>
     </row>
@@ -4689,20 +5305,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H136" s="9"/>
     </row>
@@ -4711,20 +5327,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H137" s="11"/>
     </row>
@@ -4733,20 +5349,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H138" s="9"/>
     </row>
@@ -4755,20 +5371,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H139" s="11"/>
     </row>
@@ -4777,20 +5393,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H140" s="9"/>
     </row>
@@ -4799,20 +5415,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H141" s="11"/>
     </row>
@@ -4827,14 +5443,14 @@
         <v>20</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H142" s="9"/>
     </row>
@@ -4855,266 +5471,246 @@
       <c r="H143" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 K4:K11 K14:K16" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 K4:K11 K14:K16">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>[1]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B17 B73:B75 C7:C9 C14:C17 C73:C75">
+      <formula1>[2]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L10 C18:C28">
+      <formula1>[3]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C118 C29:C35">
+      <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">
+      <formula1>[6]DataList!#REF!</formula1>
+    </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\qa-automation\qa-automation\Zillion\testcases\Quick Start\Enrollment\[QS_Enrollment_EmailAndPasswordPageFieldValidations.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C1</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\[Phar_Patient_App_ViewIncomplete -ok.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4 C5 C6 C10 C11 C12 C13 B4:B17 B73:B75 C7:C9 C14:C17 C73:C75</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[Patient_Registration_Positive.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L8 L10 C18:C28</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\CPR\Provider\[Phar_Patient_App_Create_PCase_Positive-OK.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C46 C49 C67 C71 C95 C98 C102 C118 C29:C35</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
-          <x14:formula1>
-            <xm:f>'C:\workspace\fipsar_automation\QA\testcases\Patient\[PatientApplication_Process_Positive_PCase.xlsx]DataList'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C91</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="52.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="13.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3">
       <c r="C14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
       <c r="C17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3">
       <c r="C27" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="3:3">
       <c r="C28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="3:3">
       <c r="C29" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="3:4">
+    <row r="30" spans="3:3">
       <c r="C30" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="3:3">
       <c r="C31" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="3:3">
       <c r="C32" t="s">
         <v>307</v>
       </c>
@@ -5251,7 +5847,7 @@
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="3:3">
@@ -5279,32 +5875,32 @@
         <v>338</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:3">
       <c r="C69" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>343</v>
       </c>
@@ -5314,10 +5910,10 @@
         <v>344</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>345</v>
       </c>
@@ -5327,25 +5923,25 @@
         <v>346</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3">
       <c r="C74" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="75" spans="3:4">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="76" spans="3:4">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="77" spans="3:4">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>350</v>
       </c>
@@ -5355,7 +5951,7 @@
         <v>351</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="79" spans="3:4">
@@ -5363,10 +5959,10 @@
         <v>352</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="80" spans="3:4">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>353</v>
       </c>
@@ -5473,12 +6069,13 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1">
       <formula1>$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="2">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370">
   <si>
     <t>Step No</t>
   </si>
@@ -519,9 +520,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -541,9 +539,6 @@
   </si>
   <si>
     <t>APP_INS_TYPE</t>
-  </si>
-  <si>
-    <t>Medicare</t>
   </si>
   <si>
     <t>Insurance type selected</t>
@@ -1154,10 +1149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1200,6 +1195,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1216,8 +1248,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1232,16 +1271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,9 +1294,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1273,78 +1325,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1365,7 +1360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor theme="4" tint="0.799981688894314"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,7 +1378,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,43 +1498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1437,120 +1540,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -1613,41 +1614,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1671,7 +1644,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1713,13 +1725,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1731,134 +1743,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1876,6 +1888,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2022,6 +2035,21 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2305,8 +2333,8 @@
   <sheetPr/>
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
@@ -4038,8 +4066,8 @@
       <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="11" t="s">
-        <v>42</v>
+      <c r="B76" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>20</v>
@@ -4047,14 +4075,14 @@
       <c r="D76" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="E76" s="11">
+        <v>1</v>
+      </c>
+      <c r="F76" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F76" s="11" t="s">
+      <c r="G76" s="10" t="s">
         <v>163</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -4069,16 +4097,16 @@
         <v>15</v>
       </c>
       <c r="D77" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="G77" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H77" s="9"/>
     </row>
@@ -4086,23 +4114,23 @@
       <c r="A78" s="10">
         <v>77</v>
       </c>
-      <c r="B78" s="11" t="s">
-        <v>42</v>
+      <c r="B78" s="17" t="s">
+        <v>115</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="E78" s="11">
+        <v>1</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>159</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -4117,16 +4145,16 @@
         <v>15</v>
       </c>
       <c r="D79" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F79" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="G79" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H79" s="9"/>
     </row>
@@ -4141,16 +4169,16 @@
         <v>15</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E80" s="11">
         <v>1235647899</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H80" s="11"/>
     </row>
@@ -4165,7 +4193,7 @@
         <v>20</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
@@ -4183,14 +4211,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E82" s="11"/>
       <c r="F82" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H82" s="11"/>
     </row>
@@ -4205,16 +4233,16 @@
         <v>15</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E83" s="9">
         <v>97890456789</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H83" s="9"/>
     </row>
@@ -4229,14 +4257,14 @@
         <v>20</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H84" s="11"/>
     </row>
@@ -4251,16 +4279,16 @@
         <v>20</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E85" s="9">
         <v>1230</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H85" s="9"/>
     </row>
@@ -4275,16 +4303,16 @@
         <v>20</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E86" s="11">
         <v>1550</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G86" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H86" s="11"/>
     </row>
@@ -4299,14 +4327,14 @@
         <v>20</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H87" s="9"/>
     </row>
@@ -4321,14 +4349,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E88" s="11"/>
       <c r="F88" s="11" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G88" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H88" s="11"/>
     </row>
@@ -4343,14 +4371,14 @@
         <v>20</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E89" s="9"/>
       <c r="F89" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H89" s="9"/>
     </row>
@@ -4365,14 +4393,14 @@
         <v>20</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E90" s="11"/>
       <c r="F90" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H90" s="11"/>
     </row>
@@ -4509,7 +4537,7 @@
         <v>20</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E97" s="9"/>
       <c r="F97" s="9"/>
@@ -4649,16 +4677,16 @@
         <v>20</v>
       </c>
       <c r="D104" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F104" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="E104" s="11" t="s">
+      <c r="G104" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>207</v>
       </c>
       <c r="H104" s="11"/>
     </row>
@@ -4689,10 +4717,10 @@
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
       <c r="F106" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H106" s="11"/>
     </row>
@@ -4707,14 +4735,14 @@
         <v>20</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E107" s="9"/>
       <c r="F107" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H107" s="9"/>
     </row>
@@ -4729,14 +4757,14 @@
         <v>20</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E108" s="11"/>
       <c r="F108" s="11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G108" s="10" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H108" s="11"/>
     </row>
@@ -4751,16 +4779,16 @@
         <v>20</v>
       </c>
       <c r="D109" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="G109" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H109" s="9"/>
     </row>
@@ -4791,10 +4819,10 @@
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="11" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G111" s="10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H111" s="11"/>
     </row>
@@ -4809,16 +4837,16 @@
         <v>15</v>
       </c>
       <c r="D112" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="G112" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H112" s="9"/>
     </row>
@@ -4833,16 +4861,16 @@
         <v>15</v>
       </c>
       <c r="D113" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="G113" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="H113" s="11"/>
     </row>
@@ -4979,14 +5007,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G120" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H120" s="9"/>
     </row>
@@ -5017,7 +5045,7 @@
         <v>20</v>
       </c>
       <c r="D122" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9"/>
@@ -5051,14 +5079,14 @@
         <v>20</v>
       </c>
       <c r="D124" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="H124" s="9"/>
     </row>
@@ -5075,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G125" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H125" s="11"/>
     </row>
@@ -5093,14 +5121,14 @@
         <v>20</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G126" s="7" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H126" s="9"/>
     </row>
@@ -5115,14 +5143,14 @@
         <v>20</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G127" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H127" s="11"/>
     </row>
@@ -5153,16 +5181,16 @@
         <v>15</v>
       </c>
       <c r="D129" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F129" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="G129" s="10" t="s">
         <v>243</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>245</v>
       </c>
       <c r="H129" s="11"/>
     </row>
@@ -5177,16 +5205,16 @@
         <v>15</v>
       </c>
       <c r="D130" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F130" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="G130" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H130" s="9"/>
     </row>
@@ -5201,7 +5229,7 @@
         <v>15</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E131" s="11">
         <v>9889656446</v>
@@ -5225,14 +5253,14 @@
         <v>15</v>
       </c>
       <c r="D132" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H132" s="9"/>
     </row>
@@ -5261,20 +5289,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C134" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D134" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H134" s="9"/>
     </row>
@@ -5283,20 +5311,20 @@
         <v>134</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E135" s="11"/>
       <c r="F135" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G135" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H135" s="11"/>
     </row>
@@ -5305,20 +5333,20 @@
         <v>135</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C136" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D136" s="12" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E136" s="9"/>
       <c r="F136" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G136" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H136" s="9"/>
     </row>
@@ -5327,20 +5355,20 @@
         <v>136</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C137" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E137" s="11"/>
       <c r="F137" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G137" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H137" s="11"/>
     </row>
@@ -5349,20 +5377,20 @@
         <v>137</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D138" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E138" s="9"/>
       <c r="F138" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G138" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H138" s="9"/>
     </row>
@@ -5371,20 +5399,20 @@
         <v>138</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C139" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E139" s="11"/>
       <c r="F139" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G139" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H139" s="11"/>
     </row>
@@ -5393,20 +5421,20 @@
         <v>139</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C140" s="9" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H140" s="9"/>
     </row>
@@ -5415,20 +5443,20 @@
         <v>140</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C141" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E141" s="11"/>
       <c r="F141" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G141" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H141" s="11"/>
     </row>
@@ -5443,14 +5471,14 @@
         <v>20</v>
       </c>
       <c r="D142" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H142" s="9"/>
     </row>
@@ -5471,8 +5499,8 @@
       <c r="H143" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 K4:K11 K14:K16">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 B3 K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B77 B93 B94 B100 B101 B110 B116 B117 B125 B126 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B79:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 K4:K11 K14:K16">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
@@ -5489,6 +5517,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C118 C29:C35">
       <formula1>[5]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B76 B78">
+      <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">
       <formula1>[6]DataList!#REF!</formula1>
@@ -5521,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5529,20 +5560,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5553,20 +5584,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5574,42 +5605,42 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -5624,12 +5655,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5639,45 +5670,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5687,7 +5718,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5697,152 +5728,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5852,37 +5883,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -5892,169 +5923,169 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="99" spans="3:3">

--- a/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Provider/Prov_Patient_App_Save_Back_Front_Navi.xlsx
@@ -166,7 +166,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1195,28 +1195,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1225,16 +1203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1255,39 +1226,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1308,8 +1263,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1320,22 +1336,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1366,19 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1396,7 +1384,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1408,55 +1444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1468,7 +1456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1486,19 +1474,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1510,7 +1492,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1522,31 +1528,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,26 +1625,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1666,33 +1666,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1712,20 +1690,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1743,130 +1743,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2333,8 +2333,8 @@
   <sheetPr/>
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
